--- a/biology/Botanique/Aframomum/Aframomum.xlsx
+++ b/biology/Botanique/Aframomum/Aframomum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Aframomum de la famille des Zingibéracées comprend environ 70 espèces répandues dans les régions tropicales d'Afrique et de Madagascar. Les graines de certaines espèces sont utilisées comme épices.
-Karl Moritz Schumann en fit la description en 1904 dans Das Pflanzenreich. Regni vegetabilis conspectus de Adolf Engler (1900)[1].
+Karl Moritz Schumann en fit la description en 1904 dans Das Pflanzenreich. Regni vegetabilis conspectus de Adolf Engler (1900).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (10 sept 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (10 sept 2010) :
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Espèces aux noms obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (10 sept 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (10 sept 2010) :
 </t>
         </is>
       </c>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
